--- a/data_year/zb/教育/成人本科分学科学生数/成人本科分学科毕业生数.xlsx
+++ b/data_year/zb/教育/成人本科分学科学生数/成人本科分学科毕业生数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE18"/>
+  <dimension ref="A1:AE13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -588,773 +588,439 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>54.0356</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
+        <v>80.39149999999999</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.0035</v>
+      </c>
       <c r="D2" t="n">
-        <v>0.1441</v>
+        <v>0.1298</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1225</v>
+        <v>0.0274</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7978</v>
+        <v>0.4332</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1792</v>
+        <v>0.096</v>
       </c>
       <c r="H2" t="n">
-        <v>4.4345</v>
+        <v>2.0029</v>
       </c>
       <c r="I2" t="n">
-        <v>5.4446</v>
+        <v>3.0558</v>
       </c>
       <c r="J2" t="n">
-        <v>0.7419</v>
+        <v>0.6528</v>
       </c>
       <c r="K2" t="n">
-        <v>2.1668</v>
+        <v>1.3951</v>
       </c>
       <c r="L2" t="n">
-        <v>0.4571</v>
+        <v>0.2573</v>
       </c>
       <c r="M2" t="n">
-        <v>1.182</v>
+        <v>0.2377</v>
       </c>
       <c r="N2" t="n">
-        <v>0.34</v>
+        <v>0.217</v>
       </c>
       <c r="O2" t="n">
-        <v>0.111</v>
+        <v>0.0392</v>
       </c>
       <c r="P2" t="n">
-        <v>0.2812</v>
+        <v>0.09379999999999999</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.3093</v>
+        <v>1.446</v>
       </c>
       <c r="R2" t="n">
-        <v>5.0773</v>
+        <v>10.7672</v>
       </c>
       <c r="S2" t="n">
-        <v>0.4991</v>
+        <v>0.3308</v>
       </c>
       <c r="T2" t="n">
-        <v>0.0024</v>
+        <v>0.007900000000000001</v>
       </c>
       <c r="U2" t="n">
-        <v>4.1576</v>
+        <v>4.788</v>
       </c>
       <c r="V2" t="n">
-        <v>8.6469</v>
+        <v>15.7468</v>
       </c>
       <c r="W2" t="n">
-        <v>15.2872</v>
+        <v>17.0521</v>
       </c>
       <c r="X2" t="n">
-        <v>48.591</v>
+        <v>77.3357</v>
       </c>
       <c r="Y2" t="n">
-        <v>2.1414</v>
+        <v>4.6037</v>
       </c>
       <c r="Z2" t="n">
-        <v>11.8815</v>
+        <v>16.0703</v>
       </c>
       <c r="AA2" t="n">
-        <v>4.6682</v>
+        <v>5.6231</v>
       </c>
       <c r="AB2" t="n">
-        <v>4.8684</v>
+        <v>4.1228</v>
       </c>
       <c r="AC2" t="n">
-        <v>7.9255</v>
+        <v>15.8938</v>
       </c>
       <c r="AD2" t="n">
-        <v>2.571</v>
+        <v>2.7233</v>
       </c>
       <c r="AE2" t="n">
-        <v>2.4539</v>
+        <v>2.1791</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>55.5799</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
+        <v>75.5402</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.004</v>
+      </c>
       <c r="D3" t="n">
-        <v>0.0078</v>
+        <v>0.114</v>
       </c>
       <c r="E3" t="n">
-        <v>0.09</v>
+        <v>0.0089</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6904</v>
+        <v>0.1755</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1232</v>
+        <v>0.0804</v>
       </c>
       <c r="H3" t="n">
-        <v>3.6089</v>
+        <v>0.8217</v>
       </c>
       <c r="I3" t="n">
-        <v>4.5586</v>
+        <v>1.878</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7066</v>
+        <v>0.4968</v>
       </c>
       <c r="K3" t="n">
-        <v>1.9173</v>
+        <v>0.7095</v>
       </c>
       <c r="L3" t="n">
-        <v>0.4642</v>
+        <v>0.1508</v>
       </c>
       <c r="M3" t="n">
-        <v>0.9665</v>
+        <v>0.0809</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2309</v>
+        <v>0.1851</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0521</v>
+        <v>0.0476</v>
       </c>
       <c r="P3" t="n">
-        <v>0.2141</v>
+        <v>0.0567</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.5149</v>
+        <v>1.0845</v>
       </c>
       <c r="R3" t="n">
-        <v>4.1629</v>
+        <v>10.2048</v>
       </c>
       <c r="S3" t="n">
-        <v>0.4823</v>
-      </c>
-      <c r="T3" t="inlineStr"/>
+        <v>0.2949</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.0024</v>
+      </c>
       <c r="U3" t="n">
-        <v>3.8754</v>
+        <v>4.0744</v>
       </c>
       <c r="V3" t="n">
-        <v>9.4428</v>
+        <v>16.1206</v>
       </c>
       <c r="W3" t="n">
-        <v>40.1351</v>
+        <v>13.6693</v>
       </c>
       <c r="X3" t="n">
-        <v>51.0213</v>
+        <v>73.6622</v>
       </c>
       <c r="Y3" t="n">
-        <v>2.6835</v>
+        <v>4.3626</v>
       </c>
       <c r="Z3" t="n">
-        <v>12.0141</v>
+        <v>14.0292</v>
       </c>
       <c r="AA3" t="n">
-        <v>5.603</v>
+        <v>4.9</v>
       </c>
       <c r="AB3" t="n">
-        <v>5.1221</v>
+        <v>3.2127</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.5375</v>
+        <v>16.7233</v>
       </c>
       <c r="AD3" t="n">
-        <v>2.4582</v>
+        <v>2.7272</v>
       </c>
       <c r="AE3" t="n">
-        <v>2.2052</v>
+        <v>1.7666</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>21.8303</v>
+        <v>80.1015</v>
       </c>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="n">
-        <v>0.1777</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.0158</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.3773</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.1045</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1.2614</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1.8893</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.09180000000000001</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.8228</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.2213</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.2988</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0.131</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0.0256</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0.0861</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.1105</v>
-      </c>
-      <c r="R4" t="n">
-        <v>3.2423</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0.0372</v>
-      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
-      <c r="U4" t="n">
-        <v>1.9438</v>
-      </c>
-      <c r="V4" t="n">
-        <v>4.356</v>
-      </c>
-      <c r="W4" t="n">
-        <v>3.0727</v>
-      </c>
-      <c r="X4" t="n">
-        <v>19.941</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0.4625</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>4.2548</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>1.8116</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>0.5842000000000001</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>3.8256</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>1.2563</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>1.3213</v>
-      </c>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr"/>
+      <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="inlineStr"/>
+      <c r="AD4" t="inlineStr"/>
+      <c r="AE4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>67.489</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.0042</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.0726</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.08409999999999999</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.8502</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.1675</v>
-      </c>
-      <c r="H5" t="n">
-        <v>3.8027</v>
-      </c>
-      <c r="I5" t="n">
-        <v>4.8006</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.7716</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2.1516</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.375</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.865</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0.2602</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0.0488</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0.2656</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0.8316</v>
-      </c>
-      <c r="R5" t="n">
-        <v>6.6682</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0.5463</v>
-      </c>
+        <v>81.1159</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
-      <c r="U5" t="n">
-        <v>5.457</v>
-      </c>
-      <c r="V5" t="n">
-        <v>10.4226</v>
-      </c>
-      <c r="W5" t="n">
-        <v>18.1288</v>
-      </c>
-      <c r="X5" t="n">
-        <v>62.6884</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>3.7175</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>15.3239</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>6.2459</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>5.8238</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>10.7146</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>2.394</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>3.0495</v>
-      </c>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr"/>
+      <c r="AB5" t="inlineStr"/>
+      <c r="AC5" t="inlineStr"/>
+      <c r="AD5" t="inlineStr"/>
+      <c r="AE5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>68.45059999999999</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.0024</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.1638</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.0712</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.7154</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.1824</v>
-      </c>
-      <c r="H6" t="n">
-        <v>3.6365</v>
-      </c>
-      <c r="I6" t="n">
-        <v>4.8222</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.9736</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1.9845</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.3104</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.7426</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0.3504</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.0409</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0.1726</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.9076</v>
-      </c>
-      <c r="R6" t="n">
-        <v>7.2456</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0.3436</v>
-      </c>
+        <v>89.905</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
-      <c r="U6" t="n">
-        <v>5.1482</v>
-      </c>
-      <c r="V6" t="n">
-        <v>11.5074</v>
-      </c>
-      <c r="W6" t="n">
-        <v>16.3895</v>
-      </c>
-      <c r="X6" t="n">
-        <v>63.6284</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>4.0016</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>14.5911</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>5.8258</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>4.8921</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>12.0183</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>2.2953</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>2.6357</v>
-      </c>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="inlineStr"/>
+      <c r="AB6" t="inlineStr"/>
+      <c r="AC6" t="inlineStr"/>
+      <c r="AD6" t="inlineStr"/>
+      <c r="AE6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>86.5421</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.0024</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.1129</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.0521</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.5183</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.1483</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2.7819</v>
-      </c>
-      <c r="I7" t="n">
-        <v>4.0266</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.9576</v>
-      </c>
-      <c r="K7" t="n">
-        <v>1.6272</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.3065</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.4027</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0.363</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0.0539</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0.1443</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.4482</v>
-      </c>
-      <c r="R7" t="n">
-        <v>9.9734</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0.3973</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0.0094</v>
-      </c>
-      <c r="U7" t="n">
-        <v>5.7228</v>
-      </c>
-      <c r="V7" t="n">
-        <v>16.2967</v>
-      </c>
-      <c r="W7" t="n">
-        <v>19.4961</v>
-      </c>
-      <c r="X7" t="n">
-        <v>82.5155</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>5.0736</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>17.9251</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>7.2187</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>4.7622</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>16.6706</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>2.7403</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>2.7338</v>
-      </c>
+        <v>96.2495</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr"/>
+      <c r="AA7" t="inlineStr"/>
+      <c r="AB7" t="inlineStr"/>
+      <c r="AC7" t="inlineStr"/>
+      <c r="AD7" t="inlineStr"/>
+      <c r="AE7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>80.39149999999999</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.0035</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.1298</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.0274</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.4332</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.096</v>
-      </c>
-      <c r="H8" t="n">
-        <v>2.0029</v>
-      </c>
-      <c r="I8" t="n">
-        <v>3.0558</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.6528</v>
-      </c>
-      <c r="K8" t="n">
-        <v>1.3951</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.2573</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.2377</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0.217</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0.0392</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0.09379999999999999</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.446</v>
-      </c>
-      <c r="R8" t="n">
-        <v>10.7672</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0.3308</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0.007900000000000001</v>
-      </c>
-      <c r="U8" t="n">
-        <v>4.788</v>
-      </c>
-      <c r="V8" t="n">
-        <v>15.7468</v>
-      </c>
-      <c r="W8" t="n">
-        <v>17.0521</v>
-      </c>
-      <c r="X8" t="n">
-        <v>77.3357</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>4.6037</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>16.0703</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>5.6231</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>4.1228</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>15.8938</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>2.7233</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>2.1791</v>
-      </c>
+        <v>102.1846</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr"/>
+      <c r="Z8" t="inlineStr"/>
+      <c r="AA8" t="inlineStr"/>
+      <c r="AB8" t="inlineStr"/>
+      <c r="AC8" t="inlineStr"/>
+      <c r="AD8" t="inlineStr"/>
+      <c r="AE8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>75.5402</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.114</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.0089</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.1755</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.0804</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.8217</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.4968</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.7095</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0.1508</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.0809</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0.1851</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0.0476</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0.0567</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.0845</v>
-      </c>
-      <c r="R9" t="n">
-        <v>10.2048</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0.2949</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0.0024</v>
-      </c>
-      <c r="U9" t="n">
-        <v>4.0744</v>
-      </c>
-      <c r="V9" t="n">
-        <v>16.1206</v>
-      </c>
-      <c r="W9" t="n">
-        <v>13.6693</v>
-      </c>
-      <c r="X9" t="n">
-        <v>73.6622</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>4.3626</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>14.0292</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>3.2127</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>16.7233</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>2.7272</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>1.7666</v>
-      </c>
+        <v>109.1226</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr"/>
+      <c r="Z9" t="inlineStr"/>
+      <c r="AA9" t="inlineStr"/>
+      <c r="AB9" t="inlineStr"/>
+      <c r="AC9" t="inlineStr"/>
+      <c r="AD9" t="inlineStr"/>
+      <c r="AE9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>80.1015</v>
+        <v>99.5851</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
@@ -1389,11 +1055,11 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>81.1159</v>
+        <v>101.6733</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -1428,11 +1094,11 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>89.905</v>
+        <v>122.6385</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -1467,11 +1133,11 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>96.2495</v>
+        <v>142.0887</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -1503,201 +1169,6 @@
       <c r="AD13" t="inlineStr"/>
       <c r="AE13" t="inlineStr"/>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>102.1846</v>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="inlineStr"/>
-      <c r="AA14" t="inlineStr"/>
-      <c r="AB14" t="inlineStr"/>
-      <c r="AC14" t="inlineStr"/>
-      <c r="AD14" t="inlineStr"/>
-      <c r="AE14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>109.1226</v>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr"/>
-      <c r="Z15" t="inlineStr"/>
-      <c r="AA15" t="inlineStr"/>
-      <c r="AB15" t="inlineStr"/>
-      <c r="AC15" t="inlineStr"/>
-      <c r="AD15" t="inlineStr"/>
-      <c r="AE15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>99.5851</v>
-      </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr"/>
-      <c r="Z16" t="inlineStr"/>
-      <c r="AA16" t="inlineStr"/>
-      <c r="AB16" t="inlineStr"/>
-      <c r="AC16" t="inlineStr"/>
-      <c r="AD16" t="inlineStr"/>
-      <c r="AE16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>101.6733</v>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr"/>
-      <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr"/>
-      <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="inlineStr"/>
-      <c r="Z17" t="inlineStr"/>
-      <c r="AA17" t="inlineStr"/>
-      <c r="AB17" t="inlineStr"/>
-      <c r="AC17" t="inlineStr"/>
-      <c r="AD17" t="inlineStr"/>
-      <c r="AE17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>122.6385</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr"/>
-      <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr"/>
-      <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr"/>
-      <c r="Z18" t="inlineStr"/>
-      <c r="AA18" t="inlineStr"/>
-      <c r="AB18" t="inlineStr"/>
-      <c r="AC18" t="inlineStr"/>
-      <c r="AD18" t="inlineStr"/>
-      <c r="AE18" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
